--- a/JLCSMT_CCRv24su_CPL.xlsx
+++ b/JLCSMT_CCRv24su_CPL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="259">
   <si>
     <t>Designator</t>
   </si>
@@ -213,12 +213,6 @@
     <t>94.62mm</t>
   </si>
   <si>
-    <t>37.78mm</t>
-  </si>
-  <si>
-    <t>53.18mm</t>
-  </si>
-  <si>
     <t>92.71mm</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>38.42mm</t>
   </si>
   <si>
-    <t>48.1mm</t>
-  </si>
-  <si>
     <t>8.26mm</t>
   </si>
   <si>
@@ -790,6 +781,21 @@
   </si>
   <si>
     <t>49.21mm</t>
+  </si>
+  <si>
+    <t>38.10mm</t>
+  </si>
+  <si>
+    <t>53.98mm</t>
+  </si>
+  <si>
+    <t>47.31mm</t>
+  </si>
+  <si>
+    <t>6.03mm</t>
+  </si>
+  <si>
+    <t>94.14mm</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1195,13 +1201,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1212,13 +1218,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1229,13 +1235,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1246,13 +1252,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -1263,13 +1269,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -1283,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>61</v>
@@ -1297,13 +1303,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -1320,7 +1326,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -1334,10 +1340,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -1351,10 +1357,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -1368,10 +1374,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -1382,13 +1388,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -1399,13 +1405,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -1419,10 +1425,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -1436,10 +1442,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -1450,13 +1456,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -1467,13 +1473,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -1484,13 +1490,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -1501,13 +1507,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -1518,13 +1524,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -1535,13 +1541,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -1552,13 +1558,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -1569,13 +1575,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -1589,10 +1595,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -1606,10 +1612,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -1623,10 +1629,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -1640,10 +1646,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -1654,13 +1660,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -1671,10 +1677,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>63</v>
@@ -1688,13 +1694,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -1711,7 +1717,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -1725,10 +1731,10 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -1742,10 +1748,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -1759,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>61</v>
@@ -1776,10 +1782,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -1793,10 +1799,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -1807,13 +1813,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -1824,13 +1830,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -1841,13 +1847,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -1858,13 +1864,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -1875,13 +1881,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1892,13 +1898,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1909,13 +1915,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1926,13 +1932,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -1946,10 +1952,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1963,10 +1969,10 @@
         <v>24</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1977,13 +1983,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1994,13 +2000,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -2014,10 +2020,10 @@
         <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -2031,10 +2037,10 @@
         <v>26</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -2048,10 +2054,10 @@
         <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -2065,10 +2071,10 @@
         <v>28</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -2082,10 +2088,10 @@
         <v>29</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -2099,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -2116,10 +2122,10 @@
         <v>31</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -2136,7 +2142,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -2150,10 +2156,10 @@
         <v>33</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -2164,13 +2170,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -2184,10 +2190,10 @@
         <v>34</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -2201,10 +2207,10 @@
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
@@ -2218,10 +2224,10 @@
         <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
@@ -2232,13 +2238,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -2249,13 +2255,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -2266,10 +2272,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>61</v>
@@ -2283,13 +2289,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -2300,13 +2306,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -2317,13 +2323,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -2337,10 +2343,10 @@
         <v>37</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>5</v>
@@ -2354,10 +2360,10 @@
         <v>38</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -2368,13 +2374,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -2385,13 +2391,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
@@ -2402,13 +2408,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
@@ -2419,13 +2425,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -2439,10 +2445,10 @@
         <v>39</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>5</v>
@@ -2456,10 +2462,10 @@
         <v>40</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>5</v>
@@ -2473,10 +2479,10 @@
         <v>41</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -2490,10 +2496,10 @@
         <v>42</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>5</v>
@@ -2507,10 +2513,10 @@
         <v>43</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -2521,13 +2527,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
@@ -2538,13 +2544,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>5</v>
@@ -2558,10 +2564,10 @@
         <v>44</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>5</v>
@@ -2575,10 +2581,10 @@
         <v>45</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -2592,10 +2598,10 @@
         <v>46</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -2609,10 +2615,10 @@
         <v>47</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>5</v>
@@ -2623,13 +2629,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>5</v>
@@ -2640,13 +2646,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -2660,10 +2666,10 @@
         <v>48</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -2677,10 +2683,10 @@
         <v>49</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>5</v>
@@ -2694,10 +2700,10 @@
         <v>50</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -2711,10 +2717,10 @@
         <v>51</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
@@ -2728,10 +2734,10 @@
         <v>52</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>5</v>
@@ -2742,13 +2748,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -2759,13 +2765,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -2776,13 +2782,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>5</v>
@@ -2796,10 +2802,10 @@
         <v>53</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>5</v>
@@ -2810,13 +2816,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
@@ -2827,13 +2833,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -2847,10 +2853,10 @@
         <v>54</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -2864,10 +2870,10 @@
         <v>55</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
@@ -2881,7 +2887,7 @@
         <v>56</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>61</v>
@@ -2895,13 +2901,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>5</v>
@@ -2912,13 +2918,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>5</v>
@@ -2929,13 +2935,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
@@ -2949,10 +2955,10 @@
         <v>57</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
@@ -2963,13 +2969,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>5</v>
@@ -2983,10 +2989,10 @@
         <v>58</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
@@ -2997,13 +3003,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -3014,10 +3020,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>61</v>
@@ -3034,10 +3040,10 @@
         <v>59</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>5</v>
@@ -3048,13 +3054,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>5</v>
@@ -3065,13 +3071,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>5</v>
@@ -3082,13 +3088,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
@@ -3099,13 +3105,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>5</v>
@@ -3116,10 +3122,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>61</v>
